--- a/evaluations/MAT_FLANN_SEL_KNN_Filtered.xlsx
+++ b/evaluations/MAT_FLANN_SEL_KNN_Filtered.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsumaka\Desktop\3D_Object_Tracking\evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2794FCF6-CB37-411B-8513-279FAA687123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E37DD4-0164-4280-87F0-58AA355EEE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="285" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAT_FLANN_SEL_KNN" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3450,14 +3450,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -3785,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/evaluations/MAT_FLANN_SEL_KNN_Filtered.xlsx
+++ b/evaluations/MAT_FLANN_SEL_KNN_Filtered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsumaka\Desktop\3D_Object_Tracking\evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E37DD4-0164-4280-87F0-58AA355EEE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3532BAAC-BC72-43D2-AA03-CDDC5024BBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,6 +1704,860 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1429800783098834E-2"/>
+          <c:y val="3.009915456217346E-2"/>
+          <c:w val="0.91359752162127272"/>
+          <c:h val="0.80895681730683289"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FAST_BRIEF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>11.506600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.7133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.569100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.502599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.111599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.910600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.937799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.6031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.8705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.340999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.9153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.4476</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.6126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.886200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.8009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6224299999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.611800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FAST_ORB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10.702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.7614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.345600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.501899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.681899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.287000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.418200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.1546</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.9247</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.3933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.853400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.605600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.884399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.7158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.7676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.9396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>FAST_BRISK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12.7758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.9541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.9603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.807200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.610300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.342599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.8126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.984500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.796200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.015499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.503500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.4833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.442399999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.924300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FAST_SIFT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12.5923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.014099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.2454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.950799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.361499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.622199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.724500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.4169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.145800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.728199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.8223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.650600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.909599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.1258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.2189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>FAST_FREAK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10.3432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.761699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.497199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.888500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.673299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.218500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.6051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.5771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.0062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.172599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.245200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.9649</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>BRISK_BRIEF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14.087400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.597200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.626099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.490500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.3987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.411300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.6075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.4061</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.969799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.2134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.6547</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.4458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4555699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.5115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SHITOMASI-BRIEF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MAT_FLANN_SEL_KNN!$B$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14.603899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.807499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.2826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.476100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.3033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.3569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.992599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.410500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.2102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.4602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.2516</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.9156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.3246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.1532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9069699999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-325D-488B-94B4-B96B102663B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1013409280"/>
+        <c:axId val="1553560976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1013409280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553560976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1553560976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1013409280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1824,6 +2678,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2857,6 +3751,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3481,6 +4891,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A76D9FB-8338-48D0-96A6-535B8FB7831B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3788,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,7 +5245,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3858,7 +5304,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -3920,7 +5366,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3979,7 +5425,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4038,7 +5484,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4097,7 +5543,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
